--- a/static/excel/batch_template.xlsx
+++ b/static/excel/batch_template.xlsx
@@ -5,11 +5,11 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/beibei/Desktop/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/beibei/Downloads/"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="25600" windowHeight="14660"/>
+    <workbookView xWindow="20" yWindow="1020" windowWidth="25600" windowHeight="14660"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="46">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="47" uniqueCount="47">
   <si>
     <r>
       <t>商户类型</t>
@@ -606,6 +606,22 @@
     </rPh>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
+  <si>
+    <r>
+      <t>SWIFT代码</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="等线 (正文)"/>
+        <charset val="134"/>
+      </rPr>
+      <t>*</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
@@ -1055,10 +1071,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:X201"/>
+  <dimension ref="A1:Y201"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="98" workbookViewId="0">
-      <selection activeCell="H2" sqref="H2"/>
+    <sheetView tabSelected="1" topLeftCell="N1" zoomScale="98" workbookViewId="0">
+      <selection activeCell="T2" sqref="T2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="19.33203125" defaultRowHeight="26" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -1078,13 +1094,13 @@
     <col min="15" max="15" width="19.33203125" style="8"/>
     <col min="16" max="16" width="21.33203125" style="3" bestFit="1" customWidth="1"/>
     <col min="17" max="17" width="23.5" style="3" bestFit="1" customWidth="1"/>
-    <col min="18" max="19" width="19.33203125" style="3"/>
-    <col min="20" max="20" width="23.33203125" style="3" bestFit="1" customWidth="1"/>
-    <col min="21" max="24" width="19.33203125" style="3"/>
-    <col min="25" max="16384" width="19.33203125" style="6"/>
+    <col min="18" max="20" width="19.33203125" style="3"/>
+    <col min="21" max="21" width="23.33203125" style="3" bestFit="1" customWidth="1"/>
+    <col min="22" max="25" width="19.33203125" style="3"/>
+    <col min="26" max="16384" width="19.33203125" style="6"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:24" s="4" customFormat="1" ht="26" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:25" s="4" customFormat="1" ht="26" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>45</v>
       </c>
@@ -1143,22 +1159,25 @@
         <v>17</v>
       </c>
       <c r="T1" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="U1" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="U1" s="1" t="s">
+      <c r="V1" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="V1" s="1" t="s">
+      <c r="W1" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="W1" s="1" t="s">
+      <c r="X1" s="1" t="s">
         <v>43</v>
       </c>
-      <c r="X1" s="1" t="s">
+      <c r="Y1" s="1" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="2" spans="1:24" ht="26" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:25" ht="26" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="2"/>
       <c r="B2" s="2"/>
       <c r="C2" s="2"/>
@@ -1183,8 +1202,9 @@
       <c r="V2" s="2"/>
       <c r="W2" s="2"/>
       <c r="X2" s="2"/>
-    </row>
-    <row r="3" spans="1:24" ht="26" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="Y2" s="2"/>
+    </row>
+    <row r="3" spans="1:25" ht="26" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="2"/>
       <c r="B3" s="2"/>
       <c r="C3" s="2"/>
@@ -1209,8 +1229,9 @@
       <c r="V3" s="2"/>
       <c r="W3" s="2"/>
       <c r="X3" s="2"/>
-    </row>
-    <row r="4" spans="1:24" ht="26" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="Y3" s="2"/>
+    </row>
+    <row r="4" spans="1:25" ht="26" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="2"/>
       <c r="B4" s="2"/>
       <c r="C4" s="2"/>
@@ -1235,8 +1256,9 @@
       <c r="V4" s="2"/>
       <c r="W4" s="2"/>
       <c r="X4" s="2"/>
-    </row>
-    <row r="5" spans="1:24" ht="26" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="Y4" s="2"/>
+    </row>
+    <row r="5" spans="1:25" ht="26" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="2"/>
       <c r="B5" s="2"/>
       <c r="C5" s="2"/>
@@ -1261,8 +1283,9 @@
       <c r="V5" s="2"/>
       <c r="W5" s="2"/>
       <c r="X5" s="2"/>
-    </row>
-    <row r="6" spans="1:24" ht="26" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="Y5" s="2"/>
+    </row>
+    <row r="6" spans="1:25" ht="26" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="2"/>
       <c r="B6" s="2"/>
       <c r="C6" s="2"/>
@@ -1287,8 +1310,9 @@
       <c r="V6" s="2"/>
       <c r="W6" s="2"/>
       <c r="X6" s="2"/>
-    </row>
-    <row r="7" spans="1:24" ht="26" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="Y6" s="2"/>
+    </row>
+    <row r="7" spans="1:25" ht="26" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="2"/>
       <c r="B7" s="2"/>
       <c r="C7" s="2"/>
@@ -1313,8 +1337,9 @@
       <c r="V7" s="2"/>
       <c r="W7" s="2"/>
       <c r="X7" s="2"/>
-    </row>
-    <row r="8" spans="1:24" ht="26" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="Y7" s="2"/>
+    </row>
+    <row r="8" spans="1:25" ht="26" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" s="2"/>
       <c r="B8" s="2"/>
       <c r="C8" s="2"/>
@@ -1339,8 +1364,9 @@
       <c r="V8" s="2"/>
       <c r="W8" s="2"/>
       <c r="X8" s="2"/>
-    </row>
-    <row r="9" spans="1:24" ht="26" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="Y8" s="2"/>
+    </row>
+    <row r="9" spans="1:25" ht="26" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" s="2"/>
       <c r="B9" s="2"/>
       <c r="C9" s="2"/>
@@ -1365,8 +1391,9 @@
       <c r="V9" s="2"/>
       <c r="W9" s="2"/>
       <c r="X9" s="2"/>
-    </row>
-    <row r="10" spans="1:24" ht="26" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="Y9" s="2"/>
+    </row>
+    <row r="10" spans="1:25" ht="26" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" s="2"/>
       <c r="B10" s="2"/>
       <c r="C10" s="2"/>
@@ -1391,8 +1418,9 @@
       <c r="V10" s="2"/>
       <c r="W10" s="2"/>
       <c r="X10" s="2"/>
-    </row>
-    <row r="11" spans="1:24" ht="26" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="Y10" s="2"/>
+    </row>
+    <row r="11" spans="1:25" ht="26" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" s="2"/>
       <c r="B11" s="2"/>
       <c r="C11" s="2"/>
@@ -1417,8 +1445,9 @@
       <c r="V11" s="2"/>
       <c r="W11" s="2"/>
       <c r="X11" s="2"/>
-    </row>
-    <row r="12" spans="1:24" ht="26" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="Y11" s="2"/>
+    </row>
+    <row r="12" spans="1:25" ht="26" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A12" s="2"/>
       <c r="B12" s="2"/>
       <c r="C12" s="2"/>
@@ -1443,8 +1472,9 @@
       <c r="V12" s="2"/>
       <c r="W12" s="2"/>
       <c r="X12" s="2"/>
-    </row>
-    <row r="13" spans="1:24" ht="26" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="Y12" s="2"/>
+    </row>
+    <row r="13" spans="1:25" ht="26" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A13" s="2"/>
       <c r="B13" s="2"/>
       <c r="C13" s="2"/>
@@ -1469,8 +1499,9 @@
       <c r="V13" s="2"/>
       <c r="W13" s="2"/>
       <c r="X13" s="2"/>
-    </row>
-    <row r="14" spans="1:24" ht="26" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="Y13" s="2"/>
+    </row>
+    <row r="14" spans="1:25" ht="26" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A14" s="2"/>
       <c r="B14" s="2"/>
       <c r="C14" s="2"/>
@@ -1495,8 +1526,9 @@
       <c r="V14" s="2"/>
       <c r="W14" s="2"/>
       <c r="X14" s="2"/>
-    </row>
-    <row r="15" spans="1:24" ht="26" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="Y14" s="2"/>
+    </row>
+    <row r="15" spans="1:25" ht="26" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A15" s="2"/>
       <c r="B15" s="2"/>
       <c r="C15" s="2"/>
@@ -1521,8 +1553,9 @@
       <c r="V15" s="2"/>
       <c r="W15" s="2"/>
       <c r="X15" s="2"/>
-    </row>
-    <row r="16" spans="1:24" ht="26" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="Y15" s="2"/>
+    </row>
+    <row r="16" spans="1:25" ht="26" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A16" s="2"/>
       <c r="B16" s="2"/>
       <c r="C16" s="2"/>
@@ -1547,8 +1580,9 @@
       <c r="V16" s="2"/>
       <c r="W16" s="2"/>
       <c r="X16" s="2"/>
-    </row>
-    <row r="17" spans="1:24" ht="26" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="Y16" s="2"/>
+    </row>
+    <row r="17" spans="1:25" ht="26" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A17" s="2"/>
       <c r="B17" s="2"/>
       <c r="C17" s="2"/>
@@ -1573,8 +1607,9 @@
       <c r="V17" s="2"/>
       <c r="W17" s="2"/>
       <c r="X17" s="2"/>
-    </row>
-    <row r="18" spans="1:24" ht="26" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="Y17" s="2"/>
+    </row>
+    <row r="18" spans="1:25" ht="26" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A18" s="2"/>
       <c r="B18" s="2"/>
       <c r="C18" s="2"/>
@@ -1599,8 +1634,9 @@
       <c r="V18" s="2"/>
       <c r="W18" s="2"/>
       <c r="X18" s="2"/>
-    </row>
-    <row r="19" spans="1:24" ht="26" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="Y18" s="2"/>
+    </row>
+    <row r="19" spans="1:25" ht="26" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A19" s="2"/>
       <c r="B19" s="2"/>
       <c r="C19" s="2"/>
@@ -1625,8 +1661,9 @@
       <c r="V19" s="2"/>
       <c r="W19" s="2"/>
       <c r="X19" s="2"/>
-    </row>
-    <row r="20" spans="1:24" ht="26" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="Y19" s="2"/>
+    </row>
+    <row r="20" spans="1:25" ht="26" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A20" s="2"/>
       <c r="B20" s="2"/>
       <c r="C20" s="2"/>
@@ -1651,8 +1688,9 @@
       <c r="V20" s="2"/>
       <c r="W20" s="2"/>
       <c r="X20" s="2"/>
-    </row>
-    <row r="21" spans="1:24" ht="26" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="Y20" s="2"/>
+    </row>
+    <row r="21" spans="1:25" ht="26" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A21" s="2"/>
       <c r="B21" s="2"/>
       <c r="C21" s="2"/>
@@ -1677,8 +1715,9 @@
       <c r="V21" s="2"/>
       <c r="W21" s="2"/>
       <c r="X21" s="2"/>
-    </row>
-    <row r="22" spans="1:24" ht="26" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="Y21" s="2"/>
+    </row>
+    <row r="22" spans="1:25" ht="26" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A22" s="2"/>
       <c r="B22" s="2"/>
       <c r="C22" s="2"/>
@@ -1703,8 +1742,9 @@
       <c r="V22" s="2"/>
       <c r="W22" s="2"/>
       <c r="X22" s="2"/>
-    </row>
-    <row r="23" spans="1:24" ht="26" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="Y22" s="2"/>
+    </row>
+    <row r="23" spans="1:25" ht="26" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A23" s="2"/>
       <c r="B23" s="2"/>
       <c r="C23" s="2"/>
@@ -1729,8 +1769,9 @@
       <c r="V23" s="2"/>
       <c r="W23" s="2"/>
       <c r="X23" s="2"/>
-    </row>
-    <row r="24" spans="1:24" ht="26" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="Y23" s="2"/>
+    </row>
+    <row r="24" spans="1:25" ht="26" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A24" s="2"/>
       <c r="B24" s="2"/>
       <c r="C24" s="2"/>
@@ -1755,8 +1796,9 @@
       <c r="V24" s="2"/>
       <c r="W24" s="2"/>
       <c r="X24" s="2"/>
-    </row>
-    <row r="25" spans="1:24" ht="26" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="Y24" s="2"/>
+    </row>
+    <row r="25" spans="1:25" ht="26" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A25" s="2"/>
       <c r="B25" s="2"/>
       <c r="C25" s="2"/>
@@ -1781,8 +1823,9 @@
       <c r="V25" s="2"/>
       <c r="W25" s="2"/>
       <c r="X25" s="2"/>
-    </row>
-    <row r="26" spans="1:24" ht="26" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="Y25" s="2"/>
+    </row>
+    <row r="26" spans="1:25" ht="26" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A26" s="2"/>
       <c r="B26" s="2"/>
       <c r="C26" s="2"/>
@@ -1807,8 +1850,9 @@
       <c r="V26" s="2"/>
       <c r="W26" s="2"/>
       <c r="X26" s="2"/>
-    </row>
-    <row r="27" spans="1:24" ht="26" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="Y26" s="2"/>
+    </row>
+    <row r="27" spans="1:25" ht="26" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A27" s="2"/>
       <c r="B27" s="2"/>
       <c r="C27" s="2"/>
@@ -1833,8 +1877,9 @@
       <c r="V27" s="2"/>
       <c r="W27" s="2"/>
       <c r="X27" s="2"/>
-    </row>
-    <row r="28" spans="1:24" ht="26" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="Y27" s="2"/>
+    </row>
+    <row r="28" spans="1:25" ht="26" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A28" s="2"/>
       <c r="B28" s="2"/>
       <c r="C28" s="2"/>
@@ -1859,8 +1904,9 @@
       <c r="V28" s="2"/>
       <c r="W28" s="2"/>
       <c r="X28" s="2"/>
-    </row>
-    <row r="29" spans="1:24" ht="26" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="Y28" s="2"/>
+    </row>
+    <row r="29" spans="1:25" ht="26" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A29" s="2"/>
       <c r="B29" s="2"/>
       <c r="C29" s="2"/>
@@ -1885,8 +1931,9 @@
       <c r="V29" s="2"/>
       <c r="W29" s="2"/>
       <c r="X29" s="2"/>
-    </row>
-    <row r="30" spans="1:24" ht="26" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="Y29" s="2"/>
+    </row>
+    <row r="30" spans="1:25" ht="26" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A30" s="2"/>
       <c r="B30" s="2"/>
       <c r="C30" s="2"/>
@@ -1911,8 +1958,9 @@
       <c r="V30" s="2"/>
       <c r="W30" s="2"/>
       <c r="X30" s="2"/>
-    </row>
-    <row r="31" spans="1:24" ht="26" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="Y30" s="2"/>
+    </row>
+    <row r="31" spans="1:25" ht="26" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A31" s="2"/>
       <c r="B31" s="2"/>
       <c r="C31" s="2"/>
@@ -1937,8 +1985,9 @@
       <c r="V31" s="2"/>
       <c r="W31" s="2"/>
       <c r="X31" s="2"/>
-    </row>
-    <row r="32" spans="1:24" ht="26" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="Y31" s="2"/>
+    </row>
+    <row r="32" spans="1:25" ht="26" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A32" s="2"/>
       <c r="B32" s="2"/>
       <c r="C32" s="2"/>
@@ -1963,8 +2012,9 @@
       <c r="V32" s="2"/>
       <c r="W32" s="2"/>
       <c r="X32" s="2"/>
-    </row>
-    <row r="33" spans="1:24" ht="26" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="Y32" s="2"/>
+    </row>
+    <row r="33" spans="1:25" ht="26" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A33" s="2"/>
       <c r="B33" s="2"/>
       <c r="C33" s="2"/>
@@ -1989,8 +2039,9 @@
       <c r="V33" s="2"/>
       <c r="W33" s="2"/>
       <c r="X33" s="2"/>
-    </row>
-    <row r="34" spans="1:24" ht="26" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="Y33" s="2"/>
+    </row>
+    <row r="34" spans="1:25" ht="26" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A34" s="2"/>
       <c r="B34" s="2"/>
       <c r="C34" s="2"/>
@@ -2015,8 +2066,9 @@
       <c r="V34" s="2"/>
       <c r="W34" s="2"/>
       <c r="X34" s="2"/>
-    </row>
-    <row r="35" spans="1:24" ht="26" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="Y34" s="2"/>
+    </row>
+    <row r="35" spans="1:25" ht="26" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A35" s="2"/>
       <c r="B35" s="2"/>
       <c r="C35" s="2"/>
@@ -2041,8 +2093,9 @@
       <c r="V35" s="2"/>
       <c r="W35" s="2"/>
       <c r="X35" s="2"/>
-    </row>
-    <row r="36" spans="1:24" ht="26" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="Y35" s="2"/>
+    </row>
+    <row r="36" spans="1:25" ht="26" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A36" s="2"/>
       <c r="B36" s="2"/>
       <c r="C36" s="2"/>
@@ -2067,8 +2120,9 @@
       <c r="V36" s="2"/>
       <c r="W36" s="2"/>
       <c r="X36" s="2"/>
-    </row>
-    <row r="37" spans="1:24" ht="26" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="Y36" s="2"/>
+    </row>
+    <row r="37" spans="1:25" ht="26" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A37" s="2"/>
       <c r="B37" s="2"/>
       <c r="C37" s="2"/>
@@ -2093,8 +2147,9 @@
       <c r="V37" s="2"/>
       <c r="W37" s="2"/>
       <c r="X37" s="2"/>
-    </row>
-    <row r="38" spans="1:24" ht="26" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="Y37" s="2"/>
+    </row>
+    <row r="38" spans="1:25" ht="26" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A38" s="2"/>
       <c r="B38" s="2"/>
       <c r="C38" s="2"/>
@@ -2119,8 +2174,9 @@
       <c r="V38" s="2"/>
       <c r="W38" s="2"/>
       <c r="X38" s="2"/>
-    </row>
-    <row r="39" spans="1:24" ht="26" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="Y38" s="2"/>
+    </row>
+    <row r="39" spans="1:25" ht="26" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A39" s="2"/>
       <c r="B39" s="2"/>
       <c r="C39" s="2"/>
@@ -2145,8 +2201,9 @@
       <c r="V39" s="2"/>
       <c r="W39" s="2"/>
       <c r="X39" s="2"/>
-    </row>
-    <row r="40" spans="1:24" ht="26" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="Y39" s="2"/>
+    </row>
+    <row r="40" spans="1:25" ht="26" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A40" s="2"/>
       <c r="B40" s="2"/>
       <c r="C40" s="2"/>
@@ -2171,8 +2228,9 @@
       <c r="V40" s="2"/>
       <c r="W40" s="2"/>
       <c r="X40" s="2"/>
-    </row>
-    <row r="41" spans="1:24" ht="26" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="Y40" s="2"/>
+    </row>
+    <row r="41" spans="1:25" ht="26" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A41" s="2"/>
       <c r="B41" s="2"/>
       <c r="C41" s="2"/>
@@ -2197,8 +2255,9 @@
       <c r="V41" s="2"/>
       <c r="W41" s="2"/>
       <c r="X41" s="2"/>
-    </row>
-    <row r="42" spans="1:24" ht="26" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="Y41" s="2"/>
+    </row>
+    <row r="42" spans="1:25" ht="26" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A42" s="2"/>
       <c r="B42" s="2"/>
       <c r="C42" s="2"/>
@@ -2223,8 +2282,9 @@
       <c r="V42" s="2"/>
       <c r="W42" s="2"/>
       <c r="X42" s="2"/>
-    </row>
-    <row r="43" spans="1:24" ht="26" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="Y42" s="2"/>
+    </row>
+    <row r="43" spans="1:25" ht="26" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A43" s="2"/>
       <c r="B43" s="2"/>
       <c r="C43" s="2"/>
@@ -2249,8 +2309,9 @@
       <c r="V43" s="2"/>
       <c r="W43" s="2"/>
       <c r="X43" s="2"/>
-    </row>
-    <row r="44" spans="1:24" ht="26" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="Y43" s="2"/>
+    </row>
+    <row r="44" spans="1:25" ht="26" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A44" s="2"/>
       <c r="B44" s="2"/>
       <c r="C44" s="2"/>
@@ -2275,8 +2336,9 @@
       <c r="V44" s="2"/>
       <c r="W44" s="2"/>
       <c r="X44" s="2"/>
-    </row>
-    <row r="45" spans="1:24" ht="26" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="Y44" s="2"/>
+    </row>
+    <row r="45" spans="1:25" ht="26" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A45" s="2"/>
       <c r="B45" s="2"/>
       <c r="C45" s="2"/>
@@ -2301,8 +2363,9 @@
       <c r="V45" s="2"/>
       <c r="W45" s="2"/>
       <c r="X45" s="2"/>
-    </row>
-    <row r="46" spans="1:24" ht="26" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="Y45" s="2"/>
+    </row>
+    <row r="46" spans="1:25" ht="26" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A46" s="2"/>
       <c r="B46" s="2"/>
       <c r="C46" s="2"/>
@@ -2327,8 +2390,9 @@
       <c r="V46" s="2"/>
       <c r="W46" s="2"/>
       <c r="X46" s="2"/>
-    </row>
-    <row r="47" spans="1:24" ht="26" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="Y46" s="2"/>
+    </row>
+    <row r="47" spans="1:25" ht="26" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A47" s="2"/>
       <c r="B47" s="2"/>
       <c r="C47" s="2"/>
@@ -2353,8 +2417,9 @@
       <c r="V47" s="2"/>
       <c r="W47" s="2"/>
       <c r="X47" s="2"/>
-    </row>
-    <row r="48" spans="1:24" ht="26" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="Y47" s="2"/>
+    </row>
+    <row r="48" spans="1:25" ht="26" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A48" s="2"/>
       <c r="B48" s="2"/>
       <c r="C48" s="2"/>
@@ -2379,8 +2444,9 @@
       <c r="V48" s="2"/>
       <c r="W48" s="2"/>
       <c r="X48" s="2"/>
-    </row>
-    <row r="49" spans="1:24" ht="26" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="Y48" s="2"/>
+    </row>
+    <row r="49" spans="1:25" ht="26" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A49" s="2"/>
       <c r="B49" s="2"/>
       <c r="C49" s="2"/>
@@ -2405,8 +2471,9 @@
       <c r="V49" s="2"/>
       <c r="W49" s="2"/>
       <c r="X49" s="2"/>
-    </row>
-    <row r="50" spans="1:24" ht="26" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="Y49" s="2"/>
+    </row>
+    <row r="50" spans="1:25" ht="26" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A50" s="2"/>
       <c r="B50" s="2"/>
       <c r="C50" s="2"/>
@@ -2431,8 +2498,9 @@
       <c r="V50" s="2"/>
       <c r="W50" s="2"/>
       <c r="X50" s="2"/>
-    </row>
-    <row r="51" spans="1:24" ht="26" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="Y50" s="2"/>
+    </row>
+    <row r="51" spans="1:25" ht="26" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A51" s="2"/>
       <c r="B51" s="2"/>
       <c r="C51" s="2"/>
@@ -2457,8 +2525,9 @@
       <c r="V51" s="2"/>
       <c r="W51" s="2"/>
       <c r="X51" s="2"/>
-    </row>
-    <row r="52" spans="1:24" ht="26" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="Y51" s="2"/>
+    </row>
+    <row r="52" spans="1:25" ht="26" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A52" s="2"/>
       <c r="B52" s="2"/>
       <c r="C52" s="2"/>
@@ -2483,8 +2552,9 @@
       <c r="V52" s="2"/>
       <c r="W52" s="2"/>
       <c r="X52" s="2"/>
-    </row>
-    <row r="53" spans="1:24" ht="26" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="Y52" s="2"/>
+    </row>
+    <row r="53" spans="1:25" ht="26" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A53" s="2"/>
       <c r="B53" s="2"/>
       <c r="C53" s="2"/>
@@ -2509,8 +2579,9 @@
       <c r="V53" s="2"/>
       <c r="W53" s="2"/>
       <c r="X53" s="2"/>
-    </row>
-    <row r="54" spans="1:24" ht="26" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="Y53" s="2"/>
+    </row>
+    <row r="54" spans="1:25" ht="26" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A54" s="2"/>
       <c r="B54" s="2"/>
       <c r="C54" s="2"/>
@@ -2535,8 +2606,9 @@
       <c r="V54" s="2"/>
       <c r="W54" s="2"/>
       <c r="X54" s="2"/>
-    </row>
-    <row r="55" spans="1:24" ht="26" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="Y54" s="2"/>
+    </row>
+    <row r="55" spans="1:25" ht="26" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A55" s="2"/>
       <c r="B55" s="2"/>
       <c r="C55" s="2"/>
@@ -2561,8 +2633,9 @@
       <c r="V55" s="2"/>
       <c r="W55" s="2"/>
       <c r="X55" s="2"/>
-    </row>
-    <row r="56" spans="1:24" ht="26" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="Y55" s="2"/>
+    </row>
+    <row r="56" spans="1:25" ht="26" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A56" s="2"/>
       <c r="B56" s="2"/>
       <c r="C56" s="2"/>
@@ -2587,8 +2660,9 @@
       <c r="V56" s="2"/>
       <c r="W56" s="2"/>
       <c r="X56" s="2"/>
-    </row>
-    <row r="57" spans="1:24" ht="26" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="Y56" s="2"/>
+    </row>
+    <row r="57" spans="1:25" ht="26" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A57" s="2"/>
       <c r="B57" s="2"/>
       <c r="C57" s="2"/>
@@ -2613,8 +2687,9 @@
       <c r="V57" s="2"/>
       <c r="W57" s="2"/>
       <c r="X57" s="2"/>
-    </row>
-    <row r="58" spans="1:24" ht="26" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="Y57" s="2"/>
+    </row>
+    <row r="58" spans="1:25" ht="26" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A58" s="2"/>
       <c r="B58" s="2"/>
       <c r="C58" s="2"/>
@@ -2639,8 +2714,9 @@
       <c r="V58" s="2"/>
       <c r="W58" s="2"/>
       <c r="X58" s="2"/>
-    </row>
-    <row r="59" spans="1:24" ht="26" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="Y58" s="2"/>
+    </row>
+    <row r="59" spans="1:25" ht="26" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A59" s="2"/>
       <c r="B59" s="2"/>
       <c r="C59" s="2"/>
@@ -2665,8 +2741,9 @@
       <c r="V59" s="2"/>
       <c r="W59" s="2"/>
       <c r="X59" s="2"/>
-    </row>
-    <row r="60" spans="1:24" ht="26" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="Y59" s="2"/>
+    </row>
+    <row r="60" spans="1:25" ht="26" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A60" s="2"/>
       <c r="B60" s="2"/>
       <c r="C60" s="2"/>
@@ -2691,8 +2768,9 @@
       <c r="V60" s="2"/>
       <c r="W60" s="2"/>
       <c r="X60" s="2"/>
-    </row>
-    <row r="61" spans="1:24" ht="26" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="Y60" s="2"/>
+    </row>
+    <row r="61" spans="1:25" ht="26" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A61" s="2"/>
       <c r="B61" s="2"/>
       <c r="C61" s="2"/>
@@ -2717,8 +2795,9 @@
       <c r="V61" s="2"/>
       <c r="W61" s="2"/>
       <c r="X61" s="2"/>
-    </row>
-    <row r="62" spans="1:24" ht="26" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="Y61" s="2"/>
+    </row>
+    <row r="62" spans="1:25" ht="26" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A62" s="2"/>
       <c r="B62" s="2"/>
       <c r="C62" s="2"/>
@@ -2743,8 +2822,9 @@
       <c r="V62" s="2"/>
       <c r="W62" s="2"/>
       <c r="X62" s="2"/>
-    </row>
-    <row r="63" spans="1:24" ht="26" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="Y62" s="2"/>
+    </row>
+    <row r="63" spans="1:25" ht="26" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A63" s="2"/>
       <c r="B63" s="2"/>
       <c r="C63" s="2"/>
@@ -2769,8 +2849,9 @@
       <c r="V63" s="2"/>
       <c r="W63" s="2"/>
       <c r="X63" s="2"/>
-    </row>
-    <row r="64" spans="1:24" ht="26" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="Y63" s="2"/>
+    </row>
+    <row r="64" spans="1:25" ht="26" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A64" s="2"/>
       <c r="B64" s="2"/>
       <c r="C64" s="2"/>
@@ -2795,8 +2876,9 @@
       <c r="V64" s="2"/>
       <c r="W64" s="2"/>
       <c r="X64" s="2"/>
-    </row>
-    <row r="65" spans="1:24" ht="26" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="Y64" s="2"/>
+    </row>
+    <row r="65" spans="1:25" ht="26" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A65" s="2"/>
       <c r="B65" s="2"/>
       <c r="C65" s="2"/>
@@ -2821,8 +2903,9 @@
       <c r="V65" s="2"/>
       <c r="W65" s="2"/>
       <c r="X65" s="2"/>
-    </row>
-    <row r="66" spans="1:24" ht="26" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="Y65" s="2"/>
+    </row>
+    <row r="66" spans="1:25" ht="26" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A66" s="2"/>
       <c r="B66" s="2"/>
       <c r="C66" s="2"/>
@@ -2847,8 +2930,9 @@
       <c r="V66" s="2"/>
       <c r="W66" s="2"/>
       <c r="X66" s="2"/>
-    </row>
-    <row r="67" spans="1:24" ht="26" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="Y66" s="2"/>
+    </row>
+    <row r="67" spans="1:25" ht="26" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A67" s="2"/>
       <c r="B67" s="2"/>
       <c r="C67" s="2"/>
@@ -2873,8 +2957,9 @@
       <c r="V67" s="2"/>
       <c r="W67" s="2"/>
       <c r="X67" s="2"/>
-    </row>
-    <row r="68" spans="1:24" ht="26" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="Y67" s="2"/>
+    </row>
+    <row r="68" spans="1:25" ht="26" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A68" s="2"/>
       <c r="B68" s="2"/>
       <c r="C68" s="2"/>
@@ -2899,8 +2984,9 @@
       <c r="V68" s="2"/>
       <c r="W68" s="2"/>
       <c r="X68" s="2"/>
-    </row>
-    <row r="69" spans="1:24" ht="26" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="Y68" s="2"/>
+    </row>
+    <row r="69" spans="1:25" ht="26" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A69" s="2"/>
       <c r="B69" s="2"/>
       <c r="C69" s="2"/>
@@ -2925,8 +3011,9 @@
       <c r="V69" s="2"/>
       <c r="W69" s="2"/>
       <c r="X69" s="2"/>
-    </row>
-    <row r="70" spans="1:24" ht="26" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="Y69" s="2"/>
+    </row>
+    <row r="70" spans="1:25" ht="26" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A70" s="2"/>
       <c r="B70" s="2"/>
       <c r="C70" s="2"/>
@@ -2951,8 +3038,9 @@
       <c r="V70" s="2"/>
       <c r="W70" s="2"/>
       <c r="X70" s="2"/>
-    </row>
-    <row r="71" spans="1:24" ht="26" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="Y70" s="2"/>
+    </row>
+    <row r="71" spans="1:25" ht="26" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A71" s="2"/>
       <c r="B71" s="2"/>
       <c r="C71" s="2"/>
@@ -2977,8 +3065,9 @@
       <c r="V71" s="2"/>
       <c r="W71" s="2"/>
       <c r="X71" s="2"/>
-    </row>
-    <row r="72" spans="1:24" ht="26" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="Y71" s="2"/>
+    </row>
+    <row r="72" spans="1:25" ht="26" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A72" s="2"/>
       <c r="B72" s="2"/>
       <c r="C72" s="2"/>
@@ -3003,8 +3092,9 @@
       <c r="V72" s="2"/>
       <c r="W72" s="2"/>
       <c r="X72" s="2"/>
-    </row>
-    <row r="73" spans="1:24" ht="26" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="Y72" s="2"/>
+    </row>
+    <row r="73" spans="1:25" ht="26" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A73" s="2"/>
       <c r="B73" s="2"/>
       <c r="C73" s="2"/>
@@ -3029,8 +3119,9 @@
       <c r="V73" s="2"/>
       <c r="W73" s="2"/>
       <c r="X73" s="2"/>
-    </row>
-    <row r="74" spans="1:24" ht="26" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="Y73" s="2"/>
+    </row>
+    <row r="74" spans="1:25" ht="26" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A74" s="2"/>
       <c r="B74" s="2"/>
       <c r="C74" s="2"/>
@@ -3055,8 +3146,9 @@
       <c r="V74" s="2"/>
       <c r="W74" s="2"/>
       <c r="X74" s="2"/>
-    </row>
-    <row r="75" spans="1:24" ht="26" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="Y74" s="2"/>
+    </row>
+    <row r="75" spans="1:25" ht="26" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A75" s="2"/>
       <c r="B75" s="2"/>
       <c r="C75" s="2"/>
@@ -3081,8 +3173,9 @@
       <c r="V75" s="2"/>
       <c r="W75" s="2"/>
       <c r="X75" s="2"/>
-    </row>
-    <row r="76" spans="1:24" ht="26" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="Y75" s="2"/>
+    </row>
+    <row r="76" spans="1:25" ht="26" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A76" s="2"/>
       <c r="B76" s="2"/>
       <c r="C76" s="2"/>
@@ -3107,8 +3200,9 @@
       <c r="V76" s="2"/>
       <c r="W76" s="2"/>
       <c r="X76" s="2"/>
-    </row>
-    <row r="77" spans="1:24" ht="26" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="Y76" s="2"/>
+    </row>
+    <row r="77" spans="1:25" ht="26" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A77" s="2"/>
       <c r="B77" s="2"/>
       <c r="C77" s="2"/>
@@ -3133,8 +3227,9 @@
       <c r="V77" s="2"/>
       <c r="W77" s="2"/>
       <c r="X77" s="2"/>
-    </row>
-    <row r="78" spans="1:24" ht="26" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="Y77" s="2"/>
+    </row>
+    <row r="78" spans="1:25" ht="26" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A78" s="2"/>
       <c r="B78" s="2"/>
       <c r="C78" s="2"/>
@@ -3159,8 +3254,9 @@
       <c r="V78" s="2"/>
       <c r="W78" s="2"/>
       <c r="X78" s="2"/>
-    </row>
-    <row r="79" spans="1:24" ht="26" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="Y78" s="2"/>
+    </row>
+    <row r="79" spans="1:25" ht="26" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A79" s="2"/>
       <c r="B79" s="2"/>
       <c r="C79" s="2"/>
@@ -3185,8 +3281,9 @@
       <c r="V79" s="2"/>
       <c r="W79" s="2"/>
       <c r="X79" s="2"/>
-    </row>
-    <row r="80" spans="1:24" ht="26" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="Y79" s="2"/>
+    </row>
+    <row r="80" spans="1:25" ht="26" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A80" s="2"/>
       <c r="B80" s="2"/>
       <c r="C80" s="2"/>
@@ -3211,8 +3308,9 @@
       <c r="V80" s="2"/>
       <c r="W80" s="2"/>
       <c r="X80" s="2"/>
-    </row>
-    <row r="81" spans="1:24" ht="26" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="Y80" s="2"/>
+    </row>
+    <row r="81" spans="1:25" ht="26" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A81" s="2"/>
       <c r="B81" s="2"/>
       <c r="C81" s="2"/>
@@ -3237,8 +3335,9 @@
       <c r="V81" s="2"/>
       <c r="W81" s="2"/>
       <c r="X81" s="2"/>
-    </row>
-    <row r="82" spans="1:24" ht="26" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="Y81" s="2"/>
+    </row>
+    <row r="82" spans="1:25" ht="26" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A82" s="2"/>
       <c r="B82" s="2"/>
       <c r="C82" s="2"/>
@@ -3263,8 +3362,9 @@
       <c r="V82" s="2"/>
       <c r="W82" s="2"/>
       <c r="X82" s="2"/>
-    </row>
-    <row r="83" spans="1:24" ht="26" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="Y82" s="2"/>
+    </row>
+    <row r="83" spans="1:25" ht="26" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A83" s="2"/>
       <c r="B83" s="2"/>
       <c r="C83" s="2"/>
@@ -3289,8 +3389,9 @@
       <c r="V83" s="2"/>
       <c r="W83" s="2"/>
       <c r="X83" s="2"/>
-    </row>
-    <row r="84" spans="1:24" ht="26" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="Y83" s="2"/>
+    </row>
+    <row r="84" spans="1:25" ht="26" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A84" s="2"/>
       <c r="B84" s="2"/>
       <c r="C84" s="2"/>
@@ -3315,8 +3416,9 @@
       <c r="V84" s="2"/>
       <c r="W84" s="2"/>
       <c r="X84" s="2"/>
-    </row>
-    <row r="85" spans="1:24" ht="26" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="Y84" s="2"/>
+    </row>
+    <row r="85" spans="1:25" ht="26" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A85" s="2"/>
       <c r="B85" s="2"/>
       <c r="C85" s="2"/>
@@ -3341,8 +3443,9 @@
       <c r="V85" s="2"/>
       <c r="W85" s="2"/>
       <c r="X85" s="2"/>
-    </row>
-    <row r="86" spans="1:24" ht="26" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="Y85" s="2"/>
+    </row>
+    <row r="86" spans="1:25" ht="26" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A86" s="2"/>
       <c r="B86" s="2"/>
       <c r="C86" s="2"/>
@@ -3367,8 +3470,9 @@
       <c r="V86" s="2"/>
       <c r="W86" s="2"/>
       <c r="X86" s="2"/>
-    </row>
-    <row r="87" spans="1:24" ht="26" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="Y86" s="2"/>
+    </row>
+    <row r="87" spans="1:25" ht="26" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A87" s="2"/>
       <c r="B87" s="2"/>
       <c r="C87" s="2"/>
@@ -3393,8 +3497,9 @@
       <c r="V87" s="2"/>
       <c r="W87" s="2"/>
       <c r="X87" s="2"/>
-    </row>
-    <row r="88" spans="1:24" ht="26" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="Y87" s="2"/>
+    </row>
+    <row r="88" spans="1:25" ht="26" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A88" s="2"/>
       <c r="B88" s="2"/>
       <c r="C88" s="2"/>
@@ -3419,8 +3524,9 @@
       <c r="V88" s="2"/>
       <c r="W88" s="2"/>
       <c r="X88" s="2"/>
-    </row>
-    <row r="89" spans="1:24" ht="26" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="Y88" s="2"/>
+    </row>
+    <row r="89" spans="1:25" ht="26" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A89" s="2"/>
       <c r="B89" s="2"/>
       <c r="C89" s="2"/>
@@ -3445,8 +3551,9 @@
       <c r="V89" s="2"/>
       <c r="W89" s="2"/>
       <c r="X89" s="2"/>
-    </row>
-    <row r="90" spans="1:24" ht="26" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="Y89" s="2"/>
+    </row>
+    <row r="90" spans="1:25" ht="26" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A90" s="2"/>
       <c r="B90" s="2"/>
       <c r="C90" s="2"/>
@@ -3471,8 +3578,9 @@
       <c r="V90" s="2"/>
       <c r="W90" s="2"/>
       <c r="X90" s="2"/>
-    </row>
-    <row r="91" spans="1:24" ht="26" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="Y90" s="2"/>
+    </row>
+    <row r="91" spans="1:25" ht="26" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A91" s="2"/>
       <c r="B91" s="2"/>
       <c r="C91" s="2"/>
@@ -3497,8 +3605,9 @@
       <c r="V91" s="2"/>
       <c r="W91" s="2"/>
       <c r="X91" s="2"/>
-    </row>
-    <row r="92" spans="1:24" ht="26" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="Y91" s="2"/>
+    </row>
+    <row r="92" spans="1:25" ht="26" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A92" s="2"/>
       <c r="B92" s="2"/>
       <c r="C92" s="2"/>
@@ -3523,8 +3632,9 @@
       <c r="V92" s="2"/>
       <c r="W92" s="2"/>
       <c r="X92" s="2"/>
-    </row>
-    <row r="93" spans="1:24" ht="26" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="Y92" s="2"/>
+    </row>
+    <row r="93" spans="1:25" ht="26" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A93" s="2"/>
       <c r="B93" s="2"/>
       <c r="C93" s="2"/>
@@ -3549,8 +3659,9 @@
       <c r="V93" s="2"/>
       <c r="W93" s="2"/>
       <c r="X93" s="2"/>
-    </row>
-    <row r="94" spans="1:24" ht="26" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="Y93" s="2"/>
+    </row>
+    <row r="94" spans="1:25" ht="26" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A94" s="2"/>
       <c r="B94" s="2"/>
       <c r="C94" s="2"/>
@@ -3575,8 +3686,9 @@
       <c r="V94" s="2"/>
       <c r="W94" s="2"/>
       <c r="X94" s="2"/>
-    </row>
-    <row r="95" spans="1:24" ht="26" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="Y94" s="2"/>
+    </row>
+    <row r="95" spans="1:25" ht="26" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A95" s="2"/>
       <c r="B95" s="2"/>
       <c r="C95" s="2"/>
@@ -3601,8 +3713,9 @@
       <c r="V95" s="2"/>
       <c r="W95" s="2"/>
       <c r="X95" s="2"/>
-    </row>
-    <row r="96" spans="1:24" ht="26" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="Y95" s="2"/>
+    </row>
+    <row r="96" spans="1:25" ht="26" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A96" s="2"/>
       <c r="B96" s="2"/>
       <c r="C96" s="2"/>
@@ -3627,8 +3740,9 @@
       <c r="V96" s="2"/>
       <c r="W96" s="2"/>
       <c r="X96" s="2"/>
-    </row>
-    <row r="97" spans="1:24" ht="26" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="Y96" s="2"/>
+    </row>
+    <row r="97" spans="1:25" ht="26" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A97" s="2"/>
       <c r="B97" s="2"/>
       <c r="C97" s="2"/>
@@ -3653,8 +3767,9 @@
       <c r="V97" s="2"/>
       <c r="W97" s="2"/>
       <c r="X97" s="2"/>
-    </row>
-    <row r="98" spans="1:24" ht="26" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="Y97" s="2"/>
+    </row>
+    <row r="98" spans="1:25" ht="26" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A98" s="2"/>
       <c r="B98" s="2"/>
       <c r="C98" s="2"/>
@@ -3679,8 +3794,9 @@
       <c r="V98" s="2"/>
       <c r="W98" s="2"/>
       <c r="X98" s="2"/>
-    </row>
-    <row r="99" spans="1:24" ht="26" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="Y98" s="2"/>
+    </row>
+    <row r="99" spans="1:25" ht="26" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A99" s="2"/>
       <c r="B99" s="2"/>
       <c r="C99" s="2"/>
@@ -3705,8 +3821,9 @@
       <c r="V99" s="2"/>
       <c r="W99" s="2"/>
       <c r="X99" s="2"/>
-    </row>
-    <row r="100" spans="1:24" ht="26" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="Y99" s="2"/>
+    </row>
+    <row r="100" spans="1:25" ht="26" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A100" s="2"/>
       <c r="B100" s="2"/>
       <c r="C100" s="2"/>
@@ -3731,8 +3848,9 @@
       <c r="V100" s="2"/>
       <c r="W100" s="2"/>
       <c r="X100" s="2"/>
-    </row>
-    <row r="101" spans="1:24" ht="26" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="Y100" s="2"/>
+    </row>
+    <row r="101" spans="1:25" ht="26" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A101" s="2"/>
       <c r="B101" s="2"/>
       <c r="C101" s="2"/>
@@ -3757,8 +3875,9 @@
       <c r="V101" s="2"/>
       <c r="W101" s="2"/>
       <c r="X101" s="2"/>
-    </row>
-    <row r="102" spans="1:24" ht="26" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="Y101" s="2"/>
+    </row>
+    <row r="102" spans="1:25" ht="26" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A102" s="2"/>
       <c r="B102" s="2"/>
       <c r="C102" s="2"/>
@@ -3783,8 +3902,9 @@
       <c r="V102" s="2"/>
       <c r="W102" s="2"/>
       <c r="X102" s="2"/>
-    </row>
-    <row r="103" spans="1:24" ht="26" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="Y102" s="2"/>
+    </row>
+    <row r="103" spans="1:25" ht="26" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A103" s="2"/>
       <c r="B103" s="2"/>
       <c r="C103" s="2"/>
@@ -3809,8 +3929,9 @@
       <c r="V103" s="2"/>
       <c r="W103" s="2"/>
       <c r="X103" s="2"/>
-    </row>
-    <row r="104" spans="1:24" ht="26" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="Y103" s="2"/>
+    </row>
+    <row r="104" spans="1:25" ht="26" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A104" s="2"/>
       <c r="B104" s="2"/>
       <c r="C104" s="2"/>
@@ -3835,8 +3956,9 @@
       <c r="V104" s="2"/>
       <c r="W104" s="2"/>
       <c r="X104" s="2"/>
-    </row>
-    <row r="105" spans="1:24" ht="26" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="Y104" s="2"/>
+    </row>
+    <row r="105" spans="1:25" ht="26" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A105" s="2"/>
       <c r="B105" s="2"/>
       <c r="C105" s="2"/>
@@ -3861,8 +3983,9 @@
       <c r="V105" s="2"/>
       <c r="W105" s="2"/>
       <c r="X105" s="2"/>
-    </row>
-    <row r="106" spans="1:24" ht="26" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="Y105" s="2"/>
+    </row>
+    <row r="106" spans="1:25" ht="26" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A106" s="2"/>
       <c r="B106" s="2"/>
       <c r="C106" s="2"/>
@@ -3887,8 +4010,9 @@
       <c r="V106" s="2"/>
       <c r="W106" s="2"/>
       <c r="X106" s="2"/>
-    </row>
-    <row r="107" spans="1:24" ht="26" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="Y106" s="2"/>
+    </row>
+    <row r="107" spans="1:25" ht="26" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A107" s="2"/>
       <c r="B107" s="2"/>
       <c r="C107" s="2"/>
@@ -3913,8 +4037,9 @@
       <c r="V107" s="2"/>
       <c r="W107" s="2"/>
       <c r="X107" s="2"/>
-    </row>
-    <row r="108" spans="1:24" ht="26" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="Y107" s="2"/>
+    </row>
+    <row r="108" spans="1:25" ht="26" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A108" s="2"/>
       <c r="B108" s="2"/>
       <c r="C108" s="2"/>
@@ -3939,8 +4064,9 @@
       <c r="V108" s="2"/>
       <c r="W108" s="2"/>
       <c r="X108" s="2"/>
-    </row>
-    <row r="109" spans="1:24" ht="26" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="Y108" s="2"/>
+    </row>
+    <row r="109" spans="1:25" ht="26" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A109" s="2"/>
       <c r="B109" s="2"/>
       <c r="C109" s="2"/>
@@ -3965,8 +4091,9 @@
       <c r="V109" s="2"/>
       <c r="W109" s="2"/>
       <c r="X109" s="2"/>
-    </row>
-    <row r="110" spans="1:24" ht="26" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="Y109" s="2"/>
+    </row>
+    <row r="110" spans="1:25" ht="26" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A110" s="2"/>
       <c r="B110" s="2"/>
       <c r="C110" s="2"/>
@@ -3991,8 +4118,9 @@
       <c r="V110" s="2"/>
       <c r="W110" s="2"/>
       <c r="X110" s="2"/>
-    </row>
-    <row r="111" spans="1:24" ht="26" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="Y110" s="2"/>
+    </row>
+    <row r="111" spans="1:25" ht="26" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A111" s="2"/>
       <c r="B111" s="2"/>
       <c r="C111" s="2"/>
@@ -4017,8 +4145,9 @@
       <c r="V111" s="2"/>
       <c r="W111" s="2"/>
       <c r="X111" s="2"/>
-    </row>
-    <row r="112" spans="1:24" ht="26" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="Y111" s="2"/>
+    </row>
+    <row r="112" spans="1:25" ht="26" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A112" s="2"/>
       <c r="B112" s="2"/>
       <c r="C112" s="2"/>
@@ -4043,8 +4172,9 @@
       <c r="V112" s="2"/>
       <c r="W112" s="2"/>
       <c r="X112" s="2"/>
-    </row>
-    <row r="113" spans="1:24" ht="26" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="Y112" s="2"/>
+    </row>
+    <row r="113" spans="1:25" ht="26" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A113" s="2"/>
       <c r="B113" s="2"/>
       <c r="C113" s="2"/>
@@ -4069,8 +4199,9 @@
       <c r="V113" s="2"/>
       <c r="W113" s="2"/>
       <c r="X113" s="2"/>
-    </row>
-    <row r="114" spans="1:24" ht="26" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="Y113" s="2"/>
+    </row>
+    <row r="114" spans="1:25" ht="26" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A114" s="2"/>
       <c r="B114" s="2"/>
       <c r="C114" s="2"/>
@@ -4095,8 +4226,9 @@
       <c r="V114" s="2"/>
       <c r="W114" s="2"/>
       <c r="X114" s="2"/>
-    </row>
-    <row r="115" spans="1:24" ht="26" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="Y114" s="2"/>
+    </row>
+    <row r="115" spans="1:25" ht="26" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A115" s="2"/>
       <c r="B115" s="2"/>
       <c r="C115" s="2"/>
@@ -4121,8 +4253,9 @@
       <c r="V115" s="2"/>
       <c r="W115" s="2"/>
       <c r="X115" s="2"/>
-    </row>
-    <row r="116" spans="1:24" ht="26" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="Y115" s="2"/>
+    </row>
+    <row r="116" spans="1:25" ht="26" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A116" s="2"/>
       <c r="B116" s="2"/>
       <c r="C116" s="2"/>
@@ -4147,8 +4280,9 @@
       <c r="V116" s="2"/>
       <c r="W116" s="2"/>
       <c r="X116" s="2"/>
-    </row>
-    <row r="117" spans="1:24" ht="26" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="Y116" s="2"/>
+    </row>
+    <row r="117" spans="1:25" ht="26" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A117" s="2"/>
       <c r="B117" s="2"/>
       <c r="C117" s="2"/>
@@ -4173,8 +4307,9 @@
       <c r="V117" s="2"/>
       <c r="W117" s="2"/>
       <c r="X117" s="2"/>
-    </row>
-    <row r="118" spans="1:24" ht="26" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="Y117" s="2"/>
+    </row>
+    <row r="118" spans="1:25" ht="26" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A118" s="2"/>
       <c r="B118" s="2"/>
       <c r="C118" s="2"/>
@@ -4199,8 +4334,9 @@
       <c r="V118" s="2"/>
       <c r="W118" s="2"/>
       <c r="X118" s="2"/>
-    </row>
-    <row r="119" spans="1:24" ht="26" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="Y118" s="2"/>
+    </row>
+    <row r="119" spans="1:25" ht="26" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A119" s="2"/>
       <c r="B119" s="2"/>
       <c r="C119" s="2"/>
@@ -4225,8 +4361,9 @@
       <c r="V119" s="2"/>
       <c r="W119" s="2"/>
       <c r="X119" s="2"/>
-    </row>
-    <row r="120" spans="1:24" ht="26" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="Y119" s="2"/>
+    </row>
+    <row r="120" spans="1:25" ht="26" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A120" s="2"/>
       <c r="B120" s="2"/>
       <c r="C120" s="2"/>
@@ -4251,8 +4388,9 @@
       <c r="V120" s="2"/>
       <c r="W120" s="2"/>
       <c r="X120" s="2"/>
-    </row>
-    <row r="121" spans="1:24" ht="26" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="Y120" s="2"/>
+    </row>
+    <row r="121" spans="1:25" ht="26" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A121" s="2"/>
       <c r="B121" s="2"/>
       <c r="C121" s="2"/>
@@ -4277,8 +4415,9 @@
       <c r="V121" s="2"/>
       <c r="W121" s="2"/>
       <c r="X121" s="2"/>
-    </row>
-    <row r="122" spans="1:24" ht="26" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="Y121" s="2"/>
+    </row>
+    <row r="122" spans="1:25" ht="26" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A122" s="2"/>
       <c r="B122" s="2"/>
       <c r="C122" s="2"/>
@@ -4303,8 +4442,9 @@
       <c r="V122" s="2"/>
       <c r="W122" s="2"/>
       <c r="X122" s="2"/>
-    </row>
-    <row r="123" spans="1:24" ht="26" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="Y122" s="2"/>
+    </row>
+    <row r="123" spans="1:25" ht="26" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A123" s="2"/>
       <c r="B123" s="2"/>
       <c r="C123" s="2"/>
@@ -4329,8 +4469,9 @@
       <c r="V123" s="2"/>
       <c r="W123" s="2"/>
       <c r="X123" s="2"/>
-    </row>
-    <row r="124" spans="1:24" ht="26" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="Y123" s="2"/>
+    </row>
+    <row r="124" spans="1:25" ht="26" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A124" s="2"/>
       <c r="B124" s="2"/>
       <c r="C124" s="2"/>
@@ -4355,8 +4496,9 @@
       <c r="V124" s="2"/>
       <c r="W124" s="2"/>
       <c r="X124" s="2"/>
-    </row>
-    <row r="125" spans="1:24" ht="26" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="Y124" s="2"/>
+    </row>
+    <row r="125" spans="1:25" ht="26" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A125" s="2"/>
       <c r="B125" s="2"/>
       <c r="C125" s="2"/>
@@ -4381,8 +4523,9 @@
       <c r="V125" s="2"/>
       <c r="W125" s="2"/>
       <c r="X125" s="2"/>
-    </row>
-    <row r="126" spans="1:24" ht="26" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="Y125" s="2"/>
+    </row>
+    <row r="126" spans="1:25" ht="26" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A126" s="2"/>
       <c r="B126" s="2"/>
       <c r="C126" s="2"/>
@@ -4407,8 +4550,9 @@
       <c r="V126" s="2"/>
       <c r="W126" s="2"/>
       <c r="X126" s="2"/>
-    </row>
-    <row r="127" spans="1:24" ht="26" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="Y126" s="2"/>
+    </row>
+    <row r="127" spans="1:25" ht="26" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A127" s="2"/>
       <c r="B127" s="2"/>
       <c r="C127" s="2"/>
@@ -4433,8 +4577,9 @@
       <c r="V127" s="2"/>
       <c r="W127" s="2"/>
       <c r="X127" s="2"/>
-    </row>
-    <row r="128" spans="1:24" ht="26" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="Y127" s="2"/>
+    </row>
+    <row r="128" spans="1:25" ht="26" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A128" s="2"/>
       <c r="B128" s="2"/>
       <c r="C128" s="2"/>
@@ -4459,8 +4604,9 @@
       <c r="V128" s="2"/>
       <c r="W128" s="2"/>
       <c r="X128" s="2"/>
-    </row>
-    <row r="129" spans="1:24" ht="26" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="Y128" s="2"/>
+    </row>
+    <row r="129" spans="1:25" ht="26" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A129" s="2"/>
       <c r="B129" s="2"/>
       <c r="C129" s="2"/>
@@ -4485,8 +4631,9 @@
       <c r="V129" s="2"/>
       <c r="W129" s="2"/>
       <c r="X129" s="2"/>
-    </row>
-    <row r="130" spans="1:24" ht="26" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="Y129" s="2"/>
+    </row>
+    <row r="130" spans="1:25" ht="26" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A130" s="2"/>
       <c r="B130" s="2"/>
       <c r="C130" s="2"/>
@@ -4511,8 +4658,9 @@
       <c r="V130" s="2"/>
       <c r="W130" s="2"/>
       <c r="X130" s="2"/>
-    </row>
-    <row r="131" spans="1:24" ht="26" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="Y130" s="2"/>
+    </row>
+    <row r="131" spans="1:25" ht="26" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A131" s="2"/>
       <c r="B131" s="2"/>
       <c r="C131" s="2"/>
@@ -4537,8 +4685,9 @@
       <c r="V131" s="2"/>
       <c r="W131" s="2"/>
       <c r="X131" s="2"/>
-    </row>
-    <row r="132" spans="1:24" ht="26" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="Y131" s="2"/>
+    </row>
+    <row r="132" spans="1:25" ht="26" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A132" s="2"/>
       <c r="B132" s="2"/>
       <c r="C132" s="2"/>
@@ -4563,8 +4712,9 @@
       <c r="V132" s="2"/>
       <c r="W132" s="2"/>
       <c r="X132" s="2"/>
-    </row>
-    <row r="133" spans="1:24" ht="26" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="Y132" s="2"/>
+    </row>
+    <row r="133" spans="1:25" ht="26" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A133" s="2"/>
       <c r="B133" s="2"/>
       <c r="C133" s="2"/>
@@ -4589,8 +4739,9 @@
       <c r="V133" s="2"/>
       <c r="W133" s="2"/>
       <c r="X133" s="2"/>
-    </row>
-    <row r="134" spans="1:24" ht="26" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="Y133" s="2"/>
+    </row>
+    <row r="134" spans="1:25" ht="26" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A134" s="2"/>
       <c r="B134" s="2"/>
       <c r="C134" s="2"/>
@@ -4615,8 +4766,9 @@
       <c r="V134" s="2"/>
       <c r="W134" s="2"/>
       <c r="X134" s="2"/>
-    </row>
-    <row r="135" spans="1:24" ht="26" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="Y134" s="2"/>
+    </row>
+    <row r="135" spans="1:25" ht="26" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A135" s="2"/>
       <c r="B135" s="2"/>
       <c r="C135" s="2"/>
@@ -4641,8 +4793,9 @@
       <c r="V135" s="2"/>
       <c r="W135" s="2"/>
       <c r="X135" s="2"/>
-    </row>
-    <row r="136" spans="1:24" ht="26" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="Y135" s="2"/>
+    </row>
+    <row r="136" spans="1:25" ht="26" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A136" s="2"/>
       <c r="B136" s="2"/>
       <c r="C136" s="2"/>
@@ -4667,8 +4820,9 @@
       <c r="V136" s="2"/>
       <c r="W136" s="2"/>
       <c r="X136" s="2"/>
-    </row>
-    <row r="137" spans="1:24" ht="26" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="Y136" s="2"/>
+    </row>
+    <row r="137" spans="1:25" ht="26" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A137" s="2"/>
       <c r="B137" s="2"/>
       <c r="C137" s="2"/>
@@ -4693,8 +4847,9 @@
       <c r="V137" s="2"/>
       <c r="W137" s="2"/>
       <c r="X137" s="2"/>
-    </row>
-    <row r="138" spans="1:24" ht="26" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="Y137" s="2"/>
+    </row>
+    <row r="138" spans="1:25" ht="26" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A138" s="2"/>
       <c r="B138" s="2"/>
       <c r="C138" s="2"/>
@@ -4719,8 +4874,9 @@
       <c r="V138" s="2"/>
       <c r="W138" s="2"/>
       <c r="X138" s="2"/>
-    </row>
-    <row r="139" spans="1:24" ht="26" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="Y138" s="2"/>
+    </row>
+    <row r="139" spans="1:25" ht="26" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A139" s="2"/>
       <c r="B139" s="2"/>
       <c r="C139" s="2"/>
@@ -4745,8 +4901,9 @@
       <c r="V139" s="2"/>
       <c r="W139" s="2"/>
       <c r="X139" s="2"/>
-    </row>
-    <row r="140" spans="1:24" ht="26" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="Y139" s="2"/>
+    </row>
+    <row r="140" spans="1:25" ht="26" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A140" s="2"/>
       <c r="B140" s="2"/>
       <c r="C140" s="2"/>
@@ -4771,8 +4928,9 @@
       <c r="V140" s="2"/>
       <c r="W140" s="2"/>
       <c r="X140" s="2"/>
-    </row>
-    <row r="141" spans="1:24" ht="26" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="Y140" s="2"/>
+    </row>
+    <row r="141" spans="1:25" ht="26" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A141" s="2"/>
       <c r="B141" s="2"/>
       <c r="C141" s="2"/>
@@ -4797,8 +4955,9 @@
       <c r="V141" s="2"/>
       <c r="W141" s="2"/>
       <c r="X141" s="2"/>
-    </row>
-    <row r="142" spans="1:24" ht="26" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="Y141" s="2"/>
+    </row>
+    <row r="142" spans="1:25" ht="26" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A142" s="2"/>
       <c r="B142" s="2"/>
       <c r="C142" s="2"/>
@@ -4823,8 +4982,9 @@
       <c r="V142" s="2"/>
       <c r="W142" s="2"/>
       <c r="X142" s="2"/>
-    </row>
-    <row r="143" spans="1:24" ht="26" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="Y142" s="2"/>
+    </row>
+    <row r="143" spans="1:25" ht="26" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A143" s="2"/>
       <c r="B143" s="2"/>
       <c r="C143" s="2"/>
@@ -4849,8 +5009,9 @@
       <c r="V143" s="2"/>
       <c r="W143" s="2"/>
       <c r="X143" s="2"/>
-    </row>
-    <row r="144" spans="1:24" ht="26" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="Y143" s="2"/>
+    </row>
+    <row r="144" spans="1:25" ht="26" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A144" s="2"/>
       <c r="B144" s="2"/>
       <c r="C144" s="2"/>
@@ -4875,8 +5036,9 @@
       <c r="V144" s="2"/>
       <c r="W144" s="2"/>
       <c r="X144" s="2"/>
-    </row>
-    <row r="145" spans="1:24" ht="26" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="Y144" s="2"/>
+    </row>
+    <row r="145" spans="1:25" ht="26" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A145" s="2"/>
       <c r="B145" s="2"/>
       <c r="C145" s="2"/>
@@ -4901,8 +5063,9 @@
       <c r="V145" s="2"/>
       <c r="W145" s="2"/>
       <c r="X145" s="2"/>
-    </row>
-    <row r="146" spans="1:24" ht="26" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="Y145" s="2"/>
+    </row>
+    <row r="146" spans="1:25" ht="26" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A146" s="2"/>
       <c r="B146" s="2"/>
       <c r="C146" s="2"/>
@@ -4927,8 +5090,9 @@
       <c r="V146" s="2"/>
       <c r="W146" s="2"/>
       <c r="X146" s="2"/>
-    </row>
-    <row r="147" spans="1:24" ht="26" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="Y146" s="2"/>
+    </row>
+    <row r="147" spans="1:25" ht="26" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A147" s="2"/>
       <c r="B147" s="2"/>
       <c r="C147" s="2"/>
@@ -4953,8 +5117,9 @@
       <c r="V147" s="2"/>
       <c r="W147" s="2"/>
       <c r="X147" s="2"/>
-    </row>
-    <row r="148" spans="1:24" ht="26" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="Y147" s="2"/>
+    </row>
+    <row r="148" spans="1:25" ht="26" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A148" s="2"/>
       <c r="B148" s="2"/>
       <c r="C148" s="2"/>
@@ -4979,8 +5144,9 @@
       <c r="V148" s="2"/>
       <c r="W148" s="2"/>
       <c r="X148" s="2"/>
-    </row>
-    <row r="149" spans="1:24" ht="26" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="Y148" s="2"/>
+    </row>
+    <row r="149" spans="1:25" ht="26" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A149" s="2"/>
       <c r="B149" s="2"/>
       <c r="C149" s="2"/>
@@ -5005,8 +5171,9 @@
       <c r="V149" s="2"/>
       <c r="W149" s="2"/>
       <c r="X149" s="2"/>
-    </row>
-    <row r="150" spans="1:24" ht="26" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="Y149" s="2"/>
+    </row>
+    <row r="150" spans="1:25" ht="26" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A150" s="2"/>
       <c r="B150" s="2"/>
       <c r="C150" s="2"/>
@@ -5031,8 +5198,9 @@
       <c r="V150" s="2"/>
       <c r="W150" s="2"/>
       <c r="X150" s="2"/>
-    </row>
-    <row r="151" spans="1:24" ht="26" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="Y150" s="2"/>
+    </row>
+    <row r="151" spans="1:25" ht="26" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A151" s="2"/>
       <c r="B151" s="2"/>
       <c r="C151" s="2"/>
@@ -5057,8 +5225,9 @@
       <c r="V151" s="2"/>
       <c r="W151" s="2"/>
       <c r="X151" s="2"/>
-    </row>
-    <row r="152" spans="1:24" ht="26" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="Y151" s="2"/>
+    </row>
+    <row r="152" spans="1:25" ht="26" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A152" s="2"/>
       <c r="B152" s="2"/>
       <c r="C152" s="2"/>
@@ -5083,8 +5252,9 @@
       <c r="V152" s="2"/>
       <c r="W152" s="2"/>
       <c r="X152" s="2"/>
-    </row>
-    <row r="153" spans="1:24" ht="26" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="Y152" s="2"/>
+    </row>
+    <row r="153" spans="1:25" ht="26" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A153" s="2"/>
       <c r="B153" s="2"/>
       <c r="C153" s="2"/>
@@ -5109,8 +5279,9 @@
       <c r="V153" s="2"/>
       <c r="W153" s="2"/>
       <c r="X153" s="2"/>
-    </row>
-    <row r="154" spans="1:24" ht="26" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="Y153" s="2"/>
+    </row>
+    <row r="154" spans="1:25" ht="26" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A154" s="2"/>
       <c r="B154" s="2"/>
       <c r="C154" s="2"/>
@@ -5135,8 +5306,9 @@
       <c r="V154" s="2"/>
       <c r="W154" s="2"/>
       <c r="X154" s="2"/>
-    </row>
-    <row r="155" spans="1:24" ht="26" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="Y154" s="2"/>
+    </row>
+    <row r="155" spans="1:25" ht="26" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A155" s="2"/>
       <c r="B155" s="2"/>
       <c r="C155" s="2"/>
@@ -5161,8 +5333,9 @@
       <c r="V155" s="2"/>
       <c r="W155" s="2"/>
       <c r="X155" s="2"/>
-    </row>
-    <row r="156" spans="1:24" ht="26" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="Y155" s="2"/>
+    </row>
+    <row r="156" spans="1:25" ht="26" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A156" s="2"/>
       <c r="B156" s="2"/>
       <c r="C156" s="2"/>
@@ -5187,8 +5360,9 @@
       <c r="V156" s="2"/>
       <c r="W156" s="2"/>
       <c r="X156" s="2"/>
-    </row>
-    <row r="157" spans="1:24" ht="26" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="Y156" s="2"/>
+    </row>
+    <row r="157" spans="1:25" ht="26" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A157" s="2"/>
       <c r="B157" s="2"/>
       <c r="C157" s="2"/>
@@ -5213,8 +5387,9 @@
       <c r="V157" s="2"/>
       <c r="W157" s="2"/>
       <c r="X157" s="2"/>
-    </row>
-    <row r="158" spans="1:24" ht="26" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="Y157" s="2"/>
+    </row>
+    <row r="158" spans="1:25" ht="26" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A158" s="2"/>
       <c r="B158" s="2"/>
       <c r="C158" s="2"/>
@@ -5239,8 +5414,9 @@
       <c r="V158" s="2"/>
       <c r="W158" s="2"/>
       <c r="X158" s="2"/>
-    </row>
-    <row r="159" spans="1:24" ht="26" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="Y158" s="2"/>
+    </row>
+    <row r="159" spans="1:25" ht="26" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A159" s="2"/>
       <c r="B159" s="2"/>
       <c r="C159" s="2"/>
@@ -5265,8 +5441,9 @@
       <c r="V159" s="2"/>
       <c r="W159" s="2"/>
       <c r="X159" s="2"/>
-    </row>
-    <row r="160" spans="1:24" ht="26" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="Y159" s="2"/>
+    </row>
+    <row r="160" spans="1:25" ht="26" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A160" s="2"/>
       <c r="B160" s="2"/>
       <c r="C160" s="2"/>
@@ -5291,8 +5468,9 @@
       <c r="V160" s="2"/>
       <c r="W160" s="2"/>
       <c r="X160" s="2"/>
-    </row>
-    <row r="161" spans="1:24" ht="26" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="Y160" s="2"/>
+    </row>
+    <row r="161" spans="1:25" ht="26" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A161" s="2"/>
       <c r="B161" s="2"/>
       <c r="C161" s="2"/>
@@ -5317,8 +5495,9 @@
       <c r="V161" s="2"/>
       <c r="W161" s="2"/>
       <c r="X161" s="2"/>
-    </row>
-    <row r="162" spans="1:24" ht="26" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="Y161" s="2"/>
+    </row>
+    <row r="162" spans="1:25" ht="26" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A162" s="2"/>
       <c r="B162" s="2"/>
       <c r="C162" s="2"/>
@@ -5343,8 +5522,9 @@
       <c r="V162" s="2"/>
       <c r="W162" s="2"/>
       <c r="X162" s="2"/>
-    </row>
-    <row r="163" spans="1:24" ht="26" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="Y162" s="2"/>
+    </row>
+    <row r="163" spans="1:25" ht="26" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A163" s="2"/>
       <c r="B163" s="2"/>
       <c r="C163" s="2"/>
@@ -5369,8 +5549,9 @@
       <c r="V163" s="2"/>
       <c r="W163" s="2"/>
       <c r="X163" s="2"/>
-    </row>
-    <row r="164" spans="1:24" ht="26" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="Y163" s="2"/>
+    </row>
+    <row r="164" spans="1:25" ht="26" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A164" s="2"/>
       <c r="B164" s="2"/>
       <c r="C164" s="2"/>
@@ -5395,8 +5576,9 @@
       <c r="V164" s="2"/>
       <c r="W164" s="2"/>
       <c r="X164" s="2"/>
-    </row>
-    <row r="165" spans="1:24" ht="26" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="Y164" s="2"/>
+    </row>
+    <row r="165" spans="1:25" ht="26" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A165" s="2"/>
       <c r="B165" s="2"/>
       <c r="C165" s="2"/>
@@ -5421,8 +5603,9 @@
       <c r="V165" s="2"/>
       <c r="W165" s="2"/>
       <c r="X165" s="2"/>
-    </row>
-    <row r="166" spans="1:24" ht="26" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="Y165" s="2"/>
+    </row>
+    <row r="166" spans="1:25" ht="26" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A166" s="2"/>
       <c r="B166" s="2"/>
       <c r="C166" s="2"/>
@@ -5447,8 +5630,9 @@
       <c r="V166" s="2"/>
       <c r="W166" s="2"/>
       <c r="X166" s="2"/>
-    </row>
-    <row r="167" spans="1:24" ht="26" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="Y166" s="2"/>
+    </row>
+    <row r="167" spans="1:25" ht="26" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A167" s="2"/>
       <c r="B167" s="2"/>
       <c r="C167" s="2"/>
@@ -5473,8 +5657,9 @@
       <c r="V167" s="2"/>
       <c r="W167" s="2"/>
       <c r="X167" s="2"/>
-    </row>
-    <row r="168" spans="1:24" ht="26" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="Y167" s="2"/>
+    </row>
+    <row r="168" spans="1:25" ht="26" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A168" s="2"/>
       <c r="B168" s="2"/>
       <c r="C168" s="2"/>
@@ -5499,8 +5684,9 @@
       <c r="V168" s="2"/>
       <c r="W168" s="2"/>
       <c r="X168" s="2"/>
-    </row>
-    <row r="169" spans="1:24" ht="26" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="Y168" s="2"/>
+    </row>
+    <row r="169" spans="1:25" ht="26" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A169" s="2"/>
       <c r="B169" s="2"/>
       <c r="C169" s="2"/>
@@ -5525,8 +5711,9 @@
       <c r="V169" s="2"/>
       <c r="W169" s="2"/>
       <c r="X169" s="2"/>
-    </row>
-    <row r="170" spans="1:24" ht="26" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="Y169" s="2"/>
+    </row>
+    <row r="170" spans="1:25" ht="26" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A170" s="2"/>
       <c r="B170" s="2"/>
       <c r="C170" s="2"/>
@@ -5551,8 +5738,9 @@
       <c r="V170" s="2"/>
       <c r="W170" s="2"/>
       <c r="X170" s="2"/>
-    </row>
-    <row r="171" spans="1:24" ht="26" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="Y170" s="2"/>
+    </row>
+    <row r="171" spans="1:25" ht="26" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A171" s="2"/>
       <c r="B171" s="2"/>
       <c r="C171" s="2"/>
@@ -5577,8 +5765,9 @@
       <c r="V171" s="2"/>
       <c r="W171" s="2"/>
       <c r="X171" s="2"/>
-    </row>
-    <row r="172" spans="1:24" ht="26" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="Y171" s="2"/>
+    </row>
+    <row r="172" spans="1:25" ht="26" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A172" s="2"/>
       <c r="B172" s="2"/>
       <c r="C172" s="2"/>
@@ -5603,8 +5792,9 @@
       <c r="V172" s="2"/>
       <c r="W172" s="2"/>
       <c r="X172" s="2"/>
-    </row>
-    <row r="173" spans="1:24" ht="26" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="Y172" s="2"/>
+    </row>
+    <row r="173" spans="1:25" ht="26" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A173" s="2"/>
       <c r="B173" s="2"/>
       <c r="C173" s="2"/>
@@ -5629,8 +5819,9 @@
       <c r="V173" s="2"/>
       <c r="W173" s="2"/>
       <c r="X173" s="2"/>
-    </row>
-    <row r="174" spans="1:24" ht="26" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="Y173" s="2"/>
+    </row>
+    <row r="174" spans="1:25" ht="26" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A174" s="2"/>
       <c r="B174" s="2"/>
       <c r="C174" s="2"/>
@@ -5655,8 +5846,9 @@
       <c r="V174" s="2"/>
       <c r="W174" s="2"/>
       <c r="X174" s="2"/>
-    </row>
-    <row r="175" spans="1:24" ht="26" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="Y174" s="2"/>
+    </row>
+    <row r="175" spans="1:25" ht="26" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A175" s="2"/>
       <c r="B175" s="2"/>
       <c r="C175" s="2"/>
@@ -5681,8 +5873,9 @@
       <c r="V175" s="2"/>
       <c r="W175" s="2"/>
       <c r="X175" s="2"/>
-    </row>
-    <row r="176" spans="1:24" ht="26" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="Y175" s="2"/>
+    </row>
+    <row r="176" spans="1:25" ht="26" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A176" s="2"/>
       <c r="B176" s="2"/>
       <c r="C176" s="2"/>
@@ -5707,8 +5900,9 @@
       <c r="V176" s="2"/>
       <c r="W176" s="2"/>
       <c r="X176" s="2"/>
-    </row>
-    <row r="177" spans="1:24" ht="26" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="Y176" s="2"/>
+    </row>
+    <row r="177" spans="1:25" ht="26" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A177" s="2"/>
       <c r="B177" s="2"/>
       <c r="C177" s="2"/>
@@ -5733,8 +5927,9 @@
       <c r="V177" s="2"/>
       <c r="W177" s="2"/>
       <c r="X177" s="2"/>
-    </row>
-    <row r="178" spans="1:24" ht="26" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="Y177" s="2"/>
+    </row>
+    <row r="178" spans="1:25" ht="26" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A178" s="2"/>
       <c r="B178" s="2"/>
       <c r="C178" s="2"/>
@@ -5759,8 +5954,9 @@
       <c r="V178" s="2"/>
       <c r="W178" s="2"/>
       <c r="X178" s="2"/>
-    </row>
-    <row r="179" spans="1:24" ht="26" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="Y178" s="2"/>
+    </row>
+    <row r="179" spans="1:25" ht="26" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A179" s="2"/>
       <c r="B179" s="2"/>
       <c r="C179" s="2"/>
@@ -5785,8 +5981,9 @@
       <c r="V179" s="2"/>
       <c r="W179" s="2"/>
       <c r="X179" s="2"/>
-    </row>
-    <row r="180" spans="1:24" ht="26" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="Y179" s="2"/>
+    </row>
+    <row r="180" spans="1:25" ht="26" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A180" s="2"/>
       <c r="B180" s="2"/>
       <c r="C180" s="2"/>
@@ -5811,8 +6008,9 @@
       <c r="V180" s="2"/>
       <c r="W180" s="2"/>
       <c r="X180" s="2"/>
-    </row>
-    <row r="181" spans="1:24" ht="26" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="Y180" s="2"/>
+    </row>
+    <row r="181" spans="1:25" ht="26" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A181" s="2"/>
       <c r="B181" s="2"/>
       <c r="C181" s="2"/>
@@ -5837,8 +6035,9 @@
       <c r="V181" s="2"/>
       <c r="W181" s="2"/>
       <c r="X181" s="2"/>
-    </row>
-    <row r="182" spans="1:24" ht="26" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="Y181" s="2"/>
+    </row>
+    <row r="182" spans="1:25" ht="26" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A182" s="2"/>
       <c r="B182" s="2"/>
       <c r="C182" s="2"/>
@@ -5863,8 +6062,9 @@
       <c r="V182" s="2"/>
       <c r="W182" s="2"/>
       <c r="X182" s="2"/>
-    </row>
-    <row r="183" spans="1:24" ht="26" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="Y182" s="2"/>
+    </row>
+    <row r="183" spans="1:25" ht="26" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A183" s="2"/>
       <c r="B183" s="2"/>
       <c r="C183" s="2"/>
@@ -5889,8 +6089,9 @@
       <c r="V183" s="2"/>
       <c r="W183" s="2"/>
       <c r="X183" s="2"/>
-    </row>
-    <row r="184" spans="1:24" ht="26" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="Y183" s="2"/>
+    </row>
+    <row r="184" spans="1:25" ht="26" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A184" s="2"/>
       <c r="B184" s="2"/>
       <c r="C184" s="2"/>
@@ -5915,8 +6116,9 @@
       <c r="V184" s="2"/>
       <c r="W184" s="2"/>
       <c r="X184" s="2"/>
-    </row>
-    <row r="185" spans="1:24" ht="26" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="Y184" s="2"/>
+    </row>
+    <row r="185" spans="1:25" ht="26" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A185" s="2"/>
       <c r="B185" s="2"/>
       <c r="C185" s="2"/>
@@ -5941,8 +6143,9 @@
       <c r="V185" s="2"/>
       <c r="W185" s="2"/>
       <c r="X185" s="2"/>
-    </row>
-    <row r="186" spans="1:24" ht="26" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="Y185" s="2"/>
+    </row>
+    <row r="186" spans="1:25" ht="26" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A186" s="2"/>
       <c r="B186" s="2"/>
       <c r="C186" s="2"/>
@@ -5967,8 +6170,9 @@
       <c r="V186" s="2"/>
       <c r="W186" s="2"/>
       <c r="X186" s="2"/>
-    </row>
-    <row r="187" spans="1:24" ht="26" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="Y186" s="2"/>
+    </row>
+    <row r="187" spans="1:25" ht="26" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A187" s="2"/>
       <c r="B187" s="2"/>
       <c r="C187" s="2"/>
@@ -5993,8 +6197,9 @@
       <c r="V187" s="2"/>
       <c r="W187" s="2"/>
       <c r="X187" s="2"/>
-    </row>
-    <row r="188" spans="1:24" ht="26" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="Y187" s="2"/>
+    </row>
+    <row r="188" spans="1:25" ht="26" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A188" s="2"/>
       <c r="B188" s="2"/>
       <c r="C188" s="2"/>
@@ -6019,8 +6224,9 @@
       <c r="V188" s="2"/>
       <c r="W188" s="2"/>
       <c r="X188" s="2"/>
-    </row>
-    <row r="189" spans="1:24" ht="26" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="Y188" s="2"/>
+    </row>
+    <row r="189" spans="1:25" ht="26" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A189" s="2"/>
       <c r="B189" s="2"/>
       <c r="C189" s="2"/>
@@ -6045,8 +6251,9 @@
       <c r="V189" s="2"/>
       <c r="W189" s="2"/>
       <c r="X189" s="2"/>
-    </row>
-    <row r="190" spans="1:24" ht="26" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="Y189" s="2"/>
+    </row>
+    <row r="190" spans="1:25" ht="26" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A190" s="2"/>
       <c r="B190" s="2"/>
       <c r="C190" s="2"/>
@@ -6071,8 +6278,9 @@
       <c r="V190" s="2"/>
       <c r="W190" s="2"/>
       <c r="X190" s="2"/>
-    </row>
-    <row r="191" spans="1:24" ht="26" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="Y190" s="2"/>
+    </row>
+    <row r="191" spans="1:25" ht="26" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A191" s="2"/>
       <c r="B191" s="2"/>
       <c r="C191" s="2"/>
@@ -6097,8 +6305,9 @@
       <c r="V191" s="2"/>
       <c r="W191" s="2"/>
       <c r="X191" s="2"/>
-    </row>
-    <row r="192" spans="1:24" ht="26" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="Y191" s="2"/>
+    </row>
+    <row r="192" spans="1:25" ht="26" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A192" s="2"/>
       <c r="B192" s="2"/>
       <c r="C192" s="2"/>
@@ -6123,8 +6332,9 @@
       <c r="V192" s="2"/>
       <c r="W192" s="2"/>
       <c r="X192" s="2"/>
-    </row>
-    <row r="193" spans="1:24" ht="26" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="Y192" s="2"/>
+    </row>
+    <row r="193" spans="1:25" ht="26" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A193" s="2"/>
       <c r="B193" s="2"/>
       <c r="C193" s="2"/>
@@ -6149,8 +6359,9 @@
       <c r="V193" s="2"/>
       <c r="W193" s="2"/>
       <c r="X193" s="2"/>
-    </row>
-    <row r="194" spans="1:24" ht="26" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="Y193" s="2"/>
+    </row>
+    <row r="194" spans="1:25" ht="26" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A194" s="2"/>
       <c r="B194" s="2"/>
       <c r="C194" s="2"/>
@@ -6175,8 +6386,9 @@
       <c r="V194" s="2"/>
       <c r="W194" s="2"/>
       <c r="X194" s="2"/>
-    </row>
-    <row r="195" spans="1:24" ht="26" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="Y194" s="2"/>
+    </row>
+    <row r="195" spans="1:25" ht="26" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A195" s="2"/>
       <c r="B195" s="2"/>
       <c r="C195" s="2"/>
@@ -6201,8 +6413,9 @@
       <c r="V195" s="2"/>
       <c r="W195" s="2"/>
       <c r="X195" s="2"/>
-    </row>
-    <row r="196" spans="1:24" ht="26" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="Y195" s="2"/>
+    </row>
+    <row r="196" spans="1:25" ht="26" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A196" s="2"/>
       <c r="B196" s="2"/>
       <c r="C196" s="2"/>
@@ -6227,8 +6440,9 @@
       <c r="V196" s="2"/>
       <c r="W196" s="2"/>
       <c r="X196" s="2"/>
-    </row>
-    <row r="197" spans="1:24" ht="26" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="Y196" s="2"/>
+    </row>
+    <row r="197" spans="1:25" ht="26" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A197" s="2"/>
       <c r="B197" s="2"/>
       <c r="C197" s="2"/>
@@ -6253,8 +6467,9 @@
       <c r="V197" s="2"/>
       <c r="W197" s="2"/>
       <c r="X197" s="2"/>
-    </row>
-    <row r="198" spans="1:24" ht="26" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="Y197" s="2"/>
+    </row>
+    <row r="198" spans="1:25" ht="26" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A198" s="2"/>
       <c r="B198" s="2"/>
       <c r="C198" s="2"/>
@@ -6279,8 +6494,9 @@
       <c r="V198" s="2"/>
       <c r="W198" s="2"/>
       <c r="X198" s="2"/>
-    </row>
-    <row r="199" spans="1:24" ht="26" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="Y198" s="2"/>
+    </row>
+    <row r="199" spans="1:25" ht="26" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A199" s="2"/>
       <c r="B199" s="2"/>
       <c r="C199" s="2"/>
@@ -6305,8 +6521,9 @@
       <c r="V199" s="2"/>
       <c r="W199" s="2"/>
       <c r="X199" s="2"/>
-    </row>
-    <row r="200" spans="1:24" ht="26" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="Y199" s="2"/>
+    </row>
+    <row r="200" spans="1:25" ht="26" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A200" s="2"/>
       <c r="B200" s="2"/>
       <c r="C200" s="2"/>
@@ -6331,8 +6548,9 @@
       <c r="V200" s="2"/>
       <c r="W200" s="2"/>
       <c r="X200" s="2"/>
-    </row>
-    <row r="201" spans="1:24" ht="26" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="Y200" s="2"/>
+    </row>
+    <row r="201" spans="1:25" ht="26" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A201" s="2"/>
       <c r="B201" s="2"/>
       <c r="C201" s="2"/>
@@ -6357,6 +6575,7 @@
       <c r="V201" s="2"/>
       <c r="W201" s="2"/>
       <c r="X201" s="2"/>
+      <c r="Y201" s="2"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
